--- a/output/2010_tax_rates_by_CEX_states.xlsx
+++ b/output/2010_tax_rates_by_CEX_states.xlsx
@@ -1989,7 +1989,7 @@
         <v>66</v>
       </c>
       <c r="C10">
-        <v>4.128811951270363</v>
+        <v>8.723478434330044</v>
       </c>
       <c r="D10">
         <v>0.0</v>
@@ -2007,13 +2007,13 @@
         <v>0.0</v>
       </c>
       <c r="I10">
-        <v>5.165475366205847</v>
+        <v>2.080435302990134</v>
       </c>
       <c r="J10">
         <v>0.0</v>
       </c>
       <c r="K10">
-        <v>6.662349637462002</v>
+        <v>0.0</v>
       </c>
       <c r="L10">
         <v>3.5735047398915345</v>
@@ -2028,40 +2028,40 @@
         <v>6.73147357475078</v>
       </c>
       <c r="P10">
-        <v>0.0</v>
+        <v>4.572825479844843</v>
       </c>
       <c r="Q10">
         <v>4.572825479844843</v>
       </c>
       <c r="R10">
-        <v>6.949999999999999</v>
+        <v>2.409837559296905</v>
       </c>
       <c r="S10">
-        <v>5.999999999999999</v>
+        <v>2.080435302990134</v>
       </c>
       <c r="T10">
-        <v>7.934190254587387</v>
+        <v>2.3196853628339995</v>
       </c>
       <c r="U10">
-        <v>3.2663039141748884</v>
+        <v>1.8789429385525764</v>
       </c>
       <c r="V10">
-        <v>3.0850400632157133</v>
+        <v>0.0</v>
       </c>
       <c r="W10">
-        <v>5.380703506464425</v>
+        <v>2.1671201072813897</v>
       </c>
       <c r="X10">
-        <v>5.165475366205847</v>
+        <v>4.137128678467276</v>
       </c>
       <c r="Y10">
-        <v>7.134999999999999</v>
+        <v>6.142611122979786</v>
       </c>
       <c r="Z10">
-        <v>6.999999999999999</v>
+        <v>2.4271745201551562</v>
       </c>
       <c r="AA10">
-        <v>4.870059136034759</v>
+        <v>0.0</v>
       </c>
       <c r="AB10">
         <v>0.17452767103119346</v>
@@ -2085,7 +2085,7 @@
         <v>0.0</v>
       </c>
       <c r="AI10">
-        <v>6.251150699874195</v>
+        <v>6.522921419289059</v>
       </c>
       <c r="AJ10">
         <v>0.3112144315090178</v>
@@ -2094,16 +2094,16 @@
         <v>2.5539371086018154</v>
       </c>
       <c r="AL10">
-        <v>7.171401633415785</v>
+        <v>2.888337678984636</v>
       </c>
       <c r="AM10">
         <v>0.0</v>
       </c>
       <c r="AN10">
-        <v>5.449576511347169</v>
+        <v>2.1948592446545914</v>
       </c>
       <c r="AO10">
-        <v>6.999999999999999</v>
+        <v>2.4271745201551562</v>
       </c>
       <c r="AP10">
         <v>0.0</v>
@@ -2112,19 +2112,19 @@
         <v>4.493963568599087</v>
       </c>
       <c r="AR10">
-        <v>5.777521974924776</v>
+        <v>4.586203633873944</v>
       </c>
       <c r="AS10">
-        <v>6.551544589471083</v>
+        <v>2.8665872266164922</v>
       </c>
       <c r="AT10">
-        <v>0.0</v>
+        <v>1.3414511924000259</v>
       </c>
       <c r="AU10">
-        <v>5.165475366205847</v>
+        <v>2.080435302990134</v>
       </c>
       <c r="AV10">
-        <v>0.14973836004643368</v>
+        <v>0.0</v>
       </c>
       <c r="AW10">
         <v>7.131064358538111</v>
@@ -2133,13 +2133,13 @@
         <v>3.4816497087598544</v>
       </c>
       <c r="AY10">
-        <v>4.666146080805949</v>
+        <v>4.503829698515615</v>
       </c>
       <c r="AZ10">
         <v>2.6582761878042063</v>
       </c>
       <c r="BA10">
-        <v>6.835999831239739</v>
+        <v>8.850624004490722</v>
       </c>
     </row>
     <row r="11" spans="1:53">
